--- a/docs/zavieh-subscription/فرم اعضا برای قرارداد.xlsx
+++ b/docs/zavieh-subscription/فرم اعضا برای قرارداد.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="26685" windowHeight="12960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>جنسیت</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>کد پستی: 1318633517</t>
+  </si>
+  <si>
+    <t>محسن اسماعیلی</t>
+  </si>
+  <si>
+    <t>تهران ، منطقه 22 ؛ خیابان امیرکبیر ، خیابان گل آذین، کوچه افراشرقی ، پلاک 11 واحد 3 کد پستی : 1493949445</t>
+  </si>
+  <si>
+    <t>esmaeili@serendip.agency</t>
+  </si>
+  <si>
+    <t>m-esm@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -88,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,37 +109,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="IRANSans"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="IRANSans"/>
-      <family val="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="IRANSans"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,23 +161,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,127 +465,154 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.85546875" style="1"/>
-    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" style="3"/>
+    <col min="13" max="13" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>3240177811</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>3240177811</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>9188305565</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="C3" s="5"/>
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>9369321988</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="10"/>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9">
+        <v>19145489</v>
+      </c>
+      <c r="D4" s="9">
+        <v>19145489</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10">
+        <v>9128917370</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="11"/>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -581,8 +623,10 @@
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>